--- a/INTLINE/data/136/ISTAT/Business confidence Index in the retail trade sector_historical.xlsx
+++ b/INTLINE/data/136/ISTAT/Business confidence Index in the retail trade sector_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NZ4"/>
+  <dimension ref="A1:OA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2312,6 +2312,11 @@
           <t>2022-05</t>
         </is>
       </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2800,7 +2805,7 @@
         <v>93.40000000000001</v>
       </c>
       <c r="FF2" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="FG2" t="n">
         <v>88.40000000000001</v>
@@ -2821,31 +2826,31 @@
         <v>90.40000000000001</v>
       </c>
       <c r="FM2" t="n">
-        <v>87.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="FN2" t="n">
         <v>90.59999999999999</v>
       </c>
       <c r="FO2" t="n">
-        <v>88</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="FP2" t="n">
         <v>91.90000000000001</v>
       </c>
       <c r="FQ2" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="FR2" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="FS2" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="FT2" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="FU2" t="n">
-        <v>90.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="FV2" t="n">
         <v>92.5</v>
@@ -2857,13 +2862,13 @@
         <v>89.40000000000001</v>
       </c>
       <c r="FY2" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="FZ2" t="n">
         <v>90</v>
       </c>
       <c r="GA2" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="GB2" t="n">
         <v>94.8</v>
@@ -2875,7 +2880,7 @@
         <v>97.2</v>
       </c>
       <c r="GE2" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="GF2" t="n">
         <v>98.7</v>
@@ -2887,7 +2892,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="GI2" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="GJ2" t="n">
         <v>96.90000000000001</v>
@@ -2905,7 +2910,7 @@
         <v>102.6</v>
       </c>
       <c r="GO2" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="GP2" t="n">
         <v>105.6</v>
@@ -2923,10 +2928,10 @@
         <v>108.2</v>
       </c>
       <c r="GU2" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="GV2" t="n">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="GW2" t="n">
         <v>103</v>
@@ -2956,7 +2961,7 @@
         <v>105.4</v>
       </c>
       <c r="HF2" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="HG2" t="n">
         <v>102.9</v>
@@ -2971,10 +2976,10 @@
         <v>101.4</v>
       </c>
       <c r="HK2" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="HL2" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="HM2" t="n">
         <v>97.59999999999999</v>
@@ -2998,7 +3003,7 @@
         <v>95.40000000000001</v>
       </c>
       <c r="HT2" t="n">
-        <v>89.40000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="HU2" t="n">
         <v>82.2</v>
@@ -3031,31 +3036,31 @@
         <v>96.40000000000001</v>
       </c>
       <c r="IE2" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="IF2" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="IG2" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="IH2" t="n">
         <v>105.9</v>
       </c>
       <c r="II2" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="IJ2" t="n">
         <v>104</v>
       </c>
       <c r="IK2" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="IL2" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="IM2" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="IN2" t="n">
         <v>94.5</v>
@@ -3079,10 +3084,10 @@
         <v>103.2</v>
       </c>
       <c r="IU2" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="IV2" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="IW2" t="n">
         <v>103.5</v>
@@ -3100,7 +3105,7 @@
         <v>88.2</v>
       </c>
       <c r="JB2" t="n">
-        <v>87.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="JC2" t="n">
         <v>82.5</v>
@@ -3139,10 +3144,10 @@
         <v>73.90000000000001</v>
       </c>
       <c r="JO2" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="JP2" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="JQ2" t="n">
         <v>72.3</v>
@@ -3163,7 +3168,7 @@
         <v>75.3</v>
       </c>
       <c r="JW2" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="JX2" t="n">
         <v>83.8</v>
@@ -3181,16 +3186,16 @@
         <v>87.8</v>
       </c>
       <c r="KC2" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="KD2" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="KE2" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="KF2" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="KG2" t="n">
         <v>93.2</v>
@@ -3229,55 +3234,55 @@
         <v>103.3</v>
       </c>
       <c r="KS2" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="KT2" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="KU2" t="n">
         <v>106.9</v>
       </c>
       <c r="KV2" t="n">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="KW2" t="n">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="KX2" t="n">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="KY2" t="n">
         <v>115</v>
       </c>
       <c r="KZ2" t="n">
-        <v>113.8</v>
+        <v>113.7</v>
       </c>
       <c r="LA2" t="n">
         <v>107.3</v>
       </c>
       <c r="LB2" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="LC2" t="n">
         <v>105.5</v>
       </c>
       <c r="LD2" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="LE2" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="LF2" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="LG2" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="LH2" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="LI2" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="LJ2" t="n">
         <v>101.4</v>
@@ -3286,7 +3291,7 @@
         <v>100.1</v>
       </c>
       <c r="LL2" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="LM2" t="n">
         <v>106.1</v>
@@ -3301,19 +3306,19 @@
         <v>109.3</v>
       </c>
       <c r="LQ2" t="n">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="LR2" t="n">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="LS2" t="n">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="LT2" t="n">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="LU2" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="LV2" t="n">
         <v>108</v>
@@ -3334,31 +3339,31 @@
         <v>104.9</v>
       </c>
       <c r="MB2" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="MC2" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="MD2" t="n">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
       <c r="ME2" t="n">
         <v>104.7</v>
       </c>
       <c r="MF2" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="MG2" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="MH2" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="MI2" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="MJ2" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="MK2" t="n">
         <v>104.8</v>
@@ -3370,13 +3375,13 @@
         <v>105.2</v>
       </c>
       <c r="MN2" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="MO2" t="n">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="MP2" t="n">
-        <v>103.7</v>
+        <v>103.9</v>
       </c>
       <c r="MQ2" t="n">
         <v>106.2</v>
@@ -3385,13 +3390,13 @@
         <v>110</v>
       </c>
       <c r="MS2" t="n">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="MT2" t="n">
         <v>106.8</v>
       </c>
       <c r="MU2" t="n">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="MV2" t="n">
         <v>107.8</v>
@@ -3400,7 +3405,7 @@
         <v>111</v>
       </c>
       <c r="MX2" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="MY2" t="n">
         <v>107.2</v>
@@ -3410,10 +3415,10 @@
       </c>
       <c r="NA2" t="inlineStr"/>
       <c r="NB2" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="NC2" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="ND2" t="n">
         <v>85.40000000000001</v>
@@ -3422,13 +3427,13 @@
         <v>92.2</v>
       </c>
       <c r="NF2" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="NG2" t="n">
         <v>98.7</v>
       </c>
       <c r="NH2" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="NI2" t="n">
         <v>88.7</v>
@@ -3443,13 +3448,13 @@
         <v>93.3</v>
       </c>
       <c r="NM2" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="NN2" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="NO2" t="n">
-        <v>107.1</v>
+        <v>106.9</v>
       </c>
       <c r="NP2" t="n">
         <v>110.6</v>
@@ -3458,13 +3463,13 @@
         <v>113.2</v>
       </c>
       <c r="NR2" t="n">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="NS2" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="NT2" t="n">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="NU2" t="n">
         <v>107.2</v>
@@ -3479,10 +3484,13 @@
         <v>100.3</v>
       </c>
       <c r="NY2" t="n">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="NZ2" t="n">
-        <v>105.5</v>
+        <v>105.8</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>107.2</v>
       </c>
     </row>
     <row r="3">
@@ -3696,10 +3704,10 @@
         <v>88.1187013351724</v>
       </c>
       <c r="FB3" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="FC3" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="FD3" t="n">
         <v>91</v>
@@ -3708,7 +3716,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="FF3" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="FG3" t="n">
         <v>86.8</v>
@@ -3723,13 +3731,13 @@
         <v>92.7</v>
       </c>
       <c r="FK3" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="FL3" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="FM3" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="FN3" t="n">
         <v>92.5</v>
@@ -3762,10 +3770,10 @@
         <v>89.3</v>
       </c>
       <c r="FX3" t="n">
-        <v>86</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="FY3" t="n">
-        <v>92.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="FZ3" t="n">
         <v>91.3</v>
@@ -3783,7 +3791,7 @@
         <v>95.5</v>
       </c>
       <c r="GE3" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="GF3" t="n">
         <v>102.9</v>
@@ -3801,7 +3809,7 @@
         <v>98.2</v>
       </c>
       <c r="GK3" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="GL3" t="n">
         <v>114</v>
@@ -3816,7 +3824,7 @@
         <v>110.4</v>
       </c>
       <c r="GP3" t="n">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="GQ3" t="n">
         <v>110.6</v>
@@ -3855,7 +3863,7 @@
         <v>112.4</v>
       </c>
       <c r="HC3" t="n">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="HD3" t="n">
         <v>109</v>
@@ -3867,7 +3875,7 @@
         <v>102</v>
       </c>
       <c r="HG3" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="HH3" t="n">
         <v>109.2</v>
@@ -3891,40 +3899,40 @@
         <v>99</v>
       </c>
       <c r="HO3" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="HP3" t="n">
         <v>87.59999999999999</v>
       </c>
       <c r="HQ3" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="HR3" t="n">
         <v>96.7</v>
       </c>
       <c r="HS3" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="HT3" t="n">
         <v>88.40000000000001</v>
       </c>
       <c r="HU3" t="n">
-        <v>72.59999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="HV3" t="n">
         <v>86.3</v>
       </c>
       <c r="HW3" t="n">
-        <v>90.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="HX3" t="n">
         <v>84.7</v>
       </c>
       <c r="HY3" t="n">
-        <v>87.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="HZ3" t="n">
-        <v>91.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="IA3" t="n">
         <v>87.8</v>
@@ -3933,16 +3941,16 @@
         <v>94.90000000000001</v>
       </c>
       <c r="IC3" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="ID3" t="n">
         <v>91.59999999999999</v>
       </c>
       <c r="IE3" t="n">
-        <v>86.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="IF3" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="IG3" t="n">
         <v>97.2</v>
@@ -3951,25 +3959,25 @@
         <v>107.6</v>
       </c>
       <c r="II3" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="IJ3" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="IK3" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="IL3" t="n">
         <v>102.4</v>
       </c>
       <c r="IM3" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="IN3" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="IO3" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="IP3" t="n">
         <v>90.8</v>
@@ -3984,10 +3992,10 @@
         <v>109.3</v>
       </c>
       <c r="IT3" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="IU3" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="IV3" t="n">
         <v>97.59999999999999</v>
@@ -3999,10 +4007,10 @@
         <v>97.7</v>
       </c>
       <c r="IY3" t="n">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="IZ3" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="JA3" t="n">
         <v>84.40000000000001</v>
@@ -4014,16 +4022,16 @@
         <v>78.8</v>
       </c>
       <c r="JD3" t="n">
-        <v>71.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="JE3" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="JF3" t="n">
         <v>69.59999999999999</v>
       </c>
       <c r="JG3" t="n">
-        <v>71.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="JH3" t="n">
         <v>76.3</v>
@@ -4035,10 +4043,10 @@
         <v>69.59999999999999</v>
       </c>
       <c r="JK3" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="JL3" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="JM3" t="n">
         <v>64.40000000000001</v>
@@ -4047,10 +4055,10 @@
         <v>71.2</v>
       </c>
       <c r="JO3" t="n">
-        <v>74.09999999999999</v>
+        <v>74</v>
       </c>
       <c r="JP3" t="n">
-        <v>73.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="JQ3" t="n">
         <v>67.8</v>
@@ -4059,7 +4067,7 @@
         <v>64.2</v>
       </c>
       <c r="JS3" t="n">
-        <v>61.4</v>
+        <v>61.5</v>
       </c>
       <c r="JT3" t="n">
         <v>62.5</v>
@@ -4071,7 +4079,7 @@
         <v>71.3</v>
       </c>
       <c r="JW3" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="JX3" t="n">
         <v>82.8</v>
@@ -4098,28 +4106,28 @@
         <v>99.8</v>
       </c>
       <c r="KF3" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="KG3" t="n">
-        <v>91.40000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="KH3" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="KI3" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="KJ3" t="n">
         <v>102.4</v>
       </c>
       <c r="KK3" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="KL3" t="n">
         <v>91</v>
       </c>
       <c r="KM3" t="n">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="KN3" t="n">
         <v>92.7</v>
@@ -4134,7 +4142,7 @@
         <v>99.8</v>
       </c>
       <c r="KR3" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="KS3" t="n">
         <v>108.4</v>
@@ -4146,7 +4154,7 @@
         <v>107</v>
       </c>
       <c r="KV3" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="KW3" t="n">
         <v>105.9</v>
@@ -4173,13 +4181,13 @@
         <v>104.3</v>
       </c>
       <c r="LE3" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="LF3" t="n">
         <v>101.1</v>
       </c>
       <c r="LG3" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="LH3" t="n">
         <v>100.8</v>
@@ -4191,7 +4199,7 @@
         <v>100.4</v>
       </c>
       <c r="LK3" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="LL3" t="n">
         <v>108.3</v>
@@ -4209,13 +4217,13 @@
         <v>109.9</v>
       </c>
       <c r="LQ3" t="n">
-        <v>113.2</v>
+        <v>113.4</v>
       </c>
       <c r="LR3" t="n">
-        <v>116.6</v>
+        <v>116.7</v>
       </c>
       <c r="LS3" t="n">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="LT3" t="n">
         <v>109.9</v>
@@ -4230,7 +4238,7 @@
         <v>115.4</v>
       </c>
       <c r="LX3" t="n">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="LY3" t="n">
         <v>113.8</v>
@@ -4239,22 +4247,22 @@
         <v>110.9</v>
       </c>
       <c r="MA3" t="n">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="MB3" t="n">
         <v>107.8</v>
       </c>
       <c r="MC3" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="MD3" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="MF3" t="n">
         <v>101.1</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>101.2</v>
       </c>
       <c r="MG3" t="n">
         <v>104.7</v>
@@ -4278,31 +4286,31 @@
         <v>105.8</v>
       </c>
       <c r="MN3" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="MO3" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="MP3" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="MQ3" t="n">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="MR3" t="n">
         <v>111.7</v>
       </c>
       <c r="MS3" t="n">
-        <v>111.1</v>
+        <v>111</v>
       </c>
       <c r="MT3" t="n">
         <v>110.3</v>
       </c>
       <c r="MU3" t="n">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="MV3" t="n">
-        <v>111</v>
+        <v>110.9</v>
       </c>
       <c r="MW3" t="n">
         <v>115.1</v>
@@ -4314,11 +4322,11 @@
         <v>108.8</v>
       </c>
       <c r="MZ3" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="NA3" t="inlineStr"/>
       <c r="NB3" t="n">
-        <v>71.2</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="NC3" t="n">
         <v>81.40000000000001</v>
@@ -4330,19 +4338,19 @@
         <v>96.59999999999999</v>
       </c>
       <c r="NF3" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="NG3" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="NH3" t="n">
-        <v>102.5</v>
+        <v>102.3</v>
       </c>
       <c r="NI3" t="n">
-        <v>91.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="NJ3" t="n">
-        <v>91.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="NK3" t="n">
         <v>98.2</v>
@@ -4351,31 +4359,31 @@
         <v>97.59999999999999</v>
       </c>
       <c r="NM3" t="n">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="NN3" t="n">
-        <v>102.9</v>
+        <v>103.1</v>
       </c>
       <c r="NO3" t="n">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="NP3" t="n">
         <v>112.3</v>
       </c>
       <c r="NQ3" t="n">
-        <v>117.9</v>
+        <v>117.8</v>
       </c>
       <c r="NR3" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="NS3" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="NT3" t="n">
         <v>108.8</v>
       </c>
-      <c r="NS3" t="n">
-        <v>107.8</v>
-      </c>
-      <c r="NT3" t="n">
-        <v>108.9</v>
-      </c>
       <c r="NU3" t="n">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="NV3" t="n">
         <v>106.4</v>
@@ -4387,10 +4395,13 @@
         <v>101.8</v>
       </c>
       <c r="NY3" t="n">
-        <v>106</v>
+        <v>106.2</v>
       </c>
       <c r="NZ3" t="n">
-        <v>108.5</v>
+        <v>108.7</v>
+      </c>
+      <c r="OA3" t="n">
+        <v>109.1</v>
       </c>
     </row>
     <row r="4">
@@ -4622,7 +4633,7 @@
         <v>89.40000000000001</v>
       </c>
       <c r="FH4" t="n">
-        <v>90.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="FI4" t="n">
         <v>90.7</v>
@@ -4634,7 +4645,7 @@
         <v>91.40000000000001</v>
       </c>
       <c r="FL4" t="n">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="FM4" t="n">
         <v>91.8</v>
@@ -4643,7 +4654,7 @@
         <v>89.7</v>
       </c>
       <c r="FO4" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="FP4" t="n">
         <v>93.90000000000001</v>
@@ -4652,16 +4663,16 @@
         <v>94.7</v>
       </c>
       <c r="FR4" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="FS4" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="FT4" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="FU4" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="FV4" t="n">
         <v>94.90000000000001</v>
@@ -4670,10 +4681,10 @@
         <v>92.3</v>
       </c>
       <c r="FX4" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="FY4" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="FZ4" t="n">
         <v>89.3</v>
@@ -4688,16 +4699,16 @@
         <v>99.3</v>
       </c>
       <c r="GD4" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="GE4" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="GF4" t="n">
         <v>94</v>
       </c>
       <c r="GG4" t="n">
-        <v>92.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="GH4" t="n">
         <v>88.40000000000001</v>
@@ -4727,13 +4738,13 @@
         <v>102.7</v>
       </c>
       <c r="GQ4" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="GR4" t="n">
         <v>102.8</v>
       </c>
       <c r="GS4" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="GT4" t="n">
         <v>99.3</v>
@@ -4745,13 +4756,13 @@
         <v>103.6</v>
       </c>
       <c r="GW4" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="GX4" t="n">
         <v>102.8</v>
       </c>
       <c r="GY4" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="GZ4" t="n">
         <v>104.7</v>
@@ -4766,7 +4777,7 @@
         <v>106</v>
       </c>
       <c r="HD4" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="HE4" t="n">
         <v>104.7</v>
@@ -4775,7 +4786,7 @@
         <v>103.4</v>
       </c>
       <c r="HG4" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="HH4" t="n">
         <v>102.4</v>
@@ -4787,7 +4798,7 @@
         <v>101.8</v>
       </c>
       <c r="HK4" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="HL4" t="n">
         <v>101.3</v>
@@ -4796,7 +4807,7 @@
         <v>97.2</v>
       </c>
       <c r="HN4" t="n">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="HO4" t="n">
         <v>97.7</v>
@@ -4814,13 +4825,13 @@
         <v>98.90000000000001</v>
       </c>
       <c r="HT4" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="HU4" t="n">
         <v>89.90000000000001</v>
       </c>
       <c r="HV4" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="HW4" t="n">
         <v>91.09999999999999</v>
@@ -4841,13 +4852,13 @@
         <v>97.90000000000001</v>
       </c>
       <c r="IC4" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="ID4" t="n">
         <v>100.3</v>
       </c>
       <c r="IE4" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="IF4" t="n">
         <v>102.9</v>
@@ -4856,7 +4867,7 @@
         <v>101.1</v>
       </c>
       <c r="IH4" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="II4" t="n">
         <v>100.7</v>
@@ -4871,28 +4882,28 @@
         <v>97</v>
       </c>
       <c r="IM4" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="IN4" t="n">
-        <v>90.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="IO4" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="IP4" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="IQ4" t="n">
         <v>102.4</v>
       </c>
       <c r="IR4" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="IS4" t="n">
         <v>103.2</v>
       </c>
       <c r="IT4" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="IU4" t="n">
         <v>97.90000000000001</v>
@@ -4916,7 +4927,7 @@
         <v>95.5</v>
       </c>
       <c r="JB4" t="n">
-        <v>92.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="JC4" t="n">
         <v>91.2</v>
@@ -4928,7 +4939,7 @@
         <v>89.7</v>
       </c>
       <c r="JF4" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="JG4" t="n">
         <v>87.2</v>
@@ -4937,13 +4948,13 @@
         <v>87.90000000000001</v>
       </c>
       <c r="JI4" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="JJ4" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="JK4" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="JL4" t="n">
         <v>82.3</v>
@@ -4964,7 +4975,7 @@
         <v>82</v>
       </c>
       <c r="JR4" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="JS4" t="n">
         <v>84.40000000000001</v>
@@ -4973,13 +4984,13 @@
         <v>83</v>
       </c>
       <c r="JU4" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="JV4" t="n">
         <v>86.8</v>
       </c>
       <c r="JW4" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="JX4" t="n">
         <v>84.90000000000001</v>
@@ -5000,7 +5011,7 @@
         <v>83.40000000000001</v>
       </c>
       <c r="KD4" t="n">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="KE4" t="n">
         <v>91.40000000000001</v>
@@ -5012,13 +5023,13 @@
         <v>98.2</v>
       </c>
       <c r="KH4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="KI4" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="KJ4" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="KK4" t="n">
         <v>95.90000000000001</v>
@@ -5045,13 +5056,13 @@
         <v>107.7</v>
       </c>
       <c r="KS4" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="KT4" t="n">
         <v>105.9</v>
       </c>
       <c r="KU4" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="KV4" t="n">
         <v>113.7</v>
@@ -5078,16 +5089,16 @@
         <v>102.1</v>
       </c>
       <c r="LD4" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="LE4" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="LF4" t="n">
         <v>104.8</v>
       </c>
       <c r="LG4" t="n">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="LH4" t="n">
         <v>102</v>
@@ -5114,19 +5125,19 @@
         <v>102.7</v>
       </c>
       <c r="LP4" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="LQ4" t="n">
         <v>111.7</v>
       </c>
       <c r="LR4" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="LS4" t="n">
-        <v>102.4</v>
+        <v>102.2</v>
       </c>
       <c r="LT4" t="n">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="LU4" t="n">
         <v>105.9</v>
@@ -5141,7 +5152,7 @@
         <v>104.3</v>
       </c>
       <c r="LY4" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="LZ4" t="n">
         <v>104.9</v>
@@ -5150,19 +5161,19 @@
         <v>103.7</v>
       </c>
       <c r="MB4" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="MC4" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="MD4" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="ME4" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="MF4" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="MG4" t="n">
         <v>95.3</v>
@@ -5183,34 +5194,34 @@
         <v>99.2</v>
       </c>
       <c r="MM4" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="MN4" t="n">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
       <c r="MO4" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="MP4" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="MQ4" t="n">
-        <v>104.9</v>
+        <v>104.6</v>
       </c>
       <c r="MR4" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="MS4" t="n">
         <v>100.5</v>
       </c>
       <c r="MT4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="MU4" t="n">
         <v>98</v>
       </c>
       <c r="MV4" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="MW4" t="n">
         <v>99.59999999999999</v>
@@ -5222,17 +5233,17 @@
         <v>103.4</v>
       </c>
       <c r="MZ4" t="n">
-        <v>92.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="NA4" t="inlineStr"/>
       <c r="NB4" t="n">
-        <v>61.6</v>
+        <v>61.7</v>
       </c>
       <c r="NC4" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="ND4" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="NE4" t="n">
         <v>81.2</v>
@@ -5247,7 +5258,7 @@
         <v>76.09999999999999</v>
       </c>
       <c r="NI4" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="NJ4" t="n">
         <v>81.09999999999999</v>
@@ -5256,19 +5267,19 @@
         <v>86.2</v>
       </c>
       <c r="NL4" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="NM4" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="NN4" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="NO4" t="n">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
       <c r="NP4" t="n">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="NQ4" t="n">
         <v>101.9</v>
@@ -5280,25 +5291,28 @@
         <v>100.8</v>
       </c>
       <c r="NT4" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="NU4" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="NV4" t="n">
         <v>106.5</v>
       </c>
       <c r="NW4" t="n">
-        <v>96.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="NX4" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="NY4" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="NZ4" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
+      </c>
+      <c r="OA4" t="n">
+        <v>100.8</v>
       </c>
     </row>
   </sheetData>
